--- a/soa-experiments.xlsx
+++ b/soa-experiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bear\Desktop\POV-for-Cloud-Based-SOA-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,22 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>75/62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>285/258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1342/1355</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13462/13243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,7 +82,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128850/126903</t>
+    <t>21855/50921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5147/5120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>539/522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84/88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23/22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +117,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -220,32 +229,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,9 +277,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="說明文字" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,30 +322,2545 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-POV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="53000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1340488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1398495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1223858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C&amp;L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1630420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="54000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$K$5:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1629651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="235193296"/>
+        <c:axId val="235193856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="235193296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235193856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="235193856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235193296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>auditing time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="58000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="86000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C&amp;L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="86000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="58000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$L$5:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230622496"/>
+        <c:axId val="230621376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230622496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230621376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230621376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230622496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>479250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>417336</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>410177</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123914</xdr:rowOff>
+      <xdr:colOff>476858</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="5" name="圖片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -330,8 +2873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="3886200"/>
-          <a:ext cx="4315427" cy="638264"/>
+          <a:off x="923925" y="2076450"/>
+          <a:ext cx="4353533" cy="666843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -606,356 +3149,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="18"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="N4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <v>214</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="5">
+        <v>194</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>273</v>
+      </c>
+      <c r="F5" s="10">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10">
+        <v>257</v>
+      </c>
+      <c r="H5" s="10">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10">
+        <v>771</v>
+      </c>
+      <c r="J5" s="10">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10">
+        <v>457</v>
+      </c>
+      <c r="L5" s="6">
+        <v>38</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9">
-        <v>263</v>
-      </c>
-      <c r="F5" s="14">
-        <v>43</v>
-      </c>
-      <c r="G5" s="14">
-        <v>318</v>
-      </c>
-      <c r="H5" s="14">
-        <v>24</v>
-      </c>
-      <c r="I5" s="14">
-        <v>653</v>
-      </c>
-      <c r="J5" s="14">
-        <v>72</v>
-      </c>
-      <c r="K5" s="14">
-        <v>489</v>
-      </c>
-      <c r="L5" s="10">
-        <v>44</v>
-      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="9">
-        <v>2089</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2518</v>
-      </c>
-      <c r="F6" s="14">
-        <v>222</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1588</v>
-      </c>
-      <c r="H6" s="14">
-        <v>119</v>
-      </c>
-      <c r="I6" s="14">
-        <v>2377</v>
-      </c>
-      <c r="J6" s="14">
-        <v>231</v>
-      </c>
-      <c r="K6" s="14">
-        <v>2138</v>
-      </c>
-      <c r="L6" s="10">
-        <v>228</v>
-      </c>
+      <c r="C6" s="5">
+        <v>1694</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1669</v>
+      </c>
+      <c r="F6" s="10">
+        <v>163</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1216</v>
+      </c>
+      <c r="H6" s="10">
+        <v>93</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1890</v>
+      </c>
+      <c r="J6" s="10">
+        <v>161</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1601</v>
+      </c>
+      <c r="L6" s="6">
+        <v>162</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>1000</v>
       </c>
-      <c r="C7" s="9">
-        <v>16715</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9">
-        <v>18381</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1422</v>
-      </c>
-      <c r="G7" s="14">
-        <v>14686</v>
-      </c>
-      <c r="H7" s="14">
-        <v>826</v>
-      </c>
-      <c r="I7" s="14">
-        <v>20031</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1802</v>
-      </c>
-      <c r="K7" s="14">
-        <v>19429</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1926</v>
+      <c r="C7" s="5">
+        <v>12519</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>13159</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1091</v>
+      </c>
+      <c r="G7" s="10">
+        <v>11214</v>
+      </c>
+      <c r="H7" s="10">
+        <v>676</v>
+      </c>
+      <c r="I7" s="10">
+        <v>16627</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1395</v>
+      </c>
+      <c r="K7" s="10">
+        <v>14658</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1497</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>1293</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2868</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>2935</v>
+      </c>
+      <c r="R7" s="10">
+        <v>7033</v>
+      </c>
+      <c r="S7" s="6">
+        <v>6975</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>10000</v>
       </c>
-      <c r="C8" s="14">
-        <v>171270</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14">
-        <v>179513</v>
-      </c>
-      <c r="F8" s="14">
-        <v>14446</v>
-      </c>
-      <c r="G8" s="14">
-        <v>158400</v>
-      </c>
-      <c r="H8" s="14">
-        <v>8621</v>
-      </c>
-      <c r="I8" s="14">
-        <v>208457</v>
-      </c>
-      <c r="J8" s="14">
-        <v>18313</v>
-      </c>
-      <c r="K8" s="14">
-        <v>203312</v>
-      </c>
-      <c r="L8" s="10">
-        <v>19422</v>
-      </c>
+      <c r="C8" s="10">
+        <v>135408</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10">
+        <v>143473</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10744</v>
+      </c>
+      <c r="G8" s="10">
+        <v>121017</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6540</v>
+      </c>
+      <c r="I8" s="10">
+        <v>162505</v>
+      </c>
+      <c r="J8" s="10">
+        <v>13780</v>
+      </c>
+      <c r="K8" s="10">
+        <v>165608</v>
+      </c>
+      <c r="L8" s="6">
+        <v>14595</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
         <v>100000</v>
       </c>
-      <c r="C9" s="12">
-        <v>1602128</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1635760</v>
-      </c>
-      <c r="F9" s="12">
-        <v>137258</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1404974</v>
-      </c>
-      <c r="H9" s="12">
-        <v>80204</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1877514</v>
-      </c>
-      <c r="J9" s="12">
-        <v>174143</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1857194</v>
-      </c>
-      <c r="L9" s="13">
-        <v>183760</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="C9" s="8">
+        <v>1340488</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>1293</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2868</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2935</v>
-      </c>
-      <c r="F16" s="14">
-        <v>7033</v>
-      </c>
-      <c r="G16" s="10">
-        <v>6975</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="E9" s="8">
+        <v>1398495</v>
+      </c>
+      <c r="F9" s="8">
+        <v>107075</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1223858</v>
+      </c>
+      <c r="H9" s="8">
+        <v>65309</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1630420</v>
+      </c>
+      <c r="J9" s="8">
+        <v>137209</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1629651</v>
+      </c>
+      <c r="L9" s="9">
+        <v>144961</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/soa-experiments.xlsx
+++ b/soa-experiments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bear\Desktop\POV-for-Cloud-Based-SOA-Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kitty\Documents\GitHub\POV-for-Cloud-Based-SOA-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>CSN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,23 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21855/50921</t>
+    <t>overhead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5147/5120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>539/522</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84/88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23/22</t>
+    <t>audit (REQ, ACK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,12 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -283,6 +265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,13 +286,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +500,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$E$3</c:f>
+              <c:f>SOA!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,7 +566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$E$5:$E$9</c:f>
+              <c:f>SOA!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -598,7 +595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$G$3</c:f>
+              <c:f>SOA!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,7 +655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$G$5:$G$9</c:f>
+              <c:f>SOA!$I$5:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -687,7 +684,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$I$3</c:f>
+              <c:f>SOA!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +746,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$I$5:$I$9</c:f>
+              <c:f>SOA!$L$5:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -778,7 +775,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$K$3</c:f>
+              <c:f>SOA!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -840,7 +837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$K$5:$K$9</c:f>
+              <c:f>SOA!$O$5:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -874,11 +871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="235193296"/>
-        <c:axId val="235193856"/>
+        <c:axId val="106664304"/>
+        <c:axId val="106664864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="235193296"/>
+        <c:axId val="106664304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +932,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235193856"/>
+        <c:crossAx val="106664864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235193856"/>
+        <c:axId val="106664864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +983,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235193296"/>
+        <c:crossAx val="106664304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,7 +1146,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$E$3</c:f>
+              <c:f>SOA!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1215,7 +1212,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$F$5:$F$9</c:f>
+              <c:f>SOA!$H$5:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1244,7 +1241,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$G$3</c:f>
+              <c:f>SOA!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,7 +1307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$H$5:$H$9</c:f>
+              <c:f>SOA!$K$5:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1339,7 +1336,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$I$3</c:f>
+              <c:f>SOA!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1405,7 +1402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$J$5:$J$9</c:f>
+              <c:f>SOA!$N$5:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1434,7 +1431,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SOA!$K$3</c:f>
+              <c:f>SOA!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1496,7 +1493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SOA!$L$5:$L$9</c:f>
+              <c:f>SOA!$Q$5:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1530,11 +1527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="230622496"/>
-        <c:axId val="230621376"/>
+        <c:axId val="220826656"/>
+        <c:axId val="220827216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230622496"/>
+        <c:axId val="220826656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1588,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230621376"/>
+        <c:crossAx val="220827216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230621376"/>
+        <c:axId val="220827216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1639,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230622496"/>
+        <c:crossAx val="220826656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1723,6 +1720,579 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1600" b="1"/>
+              <a:t>OVERHEAD OF RUNNING TIME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$P$5:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3556701030927836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.489964580873672E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17086029235561945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22302965851352949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21571472478679407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C&amp;L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$M$5:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.9742268041237114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11570247933884298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32814122533748702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20011373035566585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2162883964645711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32474226804123713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.28217237308146398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.10424155283968368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10627880184331798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7005627801218663E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOA!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CSN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>SOA!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SOA!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40721649484536082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.475796930342385E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1122294112948316E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9560734963960769E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.327304683070643E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="272923008"/>
+        <c:axId val="272927488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="272923008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272927488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="272927488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272923008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
@@ -1735,6 +2305,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -2777,20 +3353,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>479250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171862</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2811,16 +3892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>417336</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>493536</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>17735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2842,15 +3923,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476858</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19143</xdr:rowOff>
+      <xdr:colOff>448283</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2873,7 +3954,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="923925" y="2076450"/>
+          <a:off x="895350" y="2486025"/>
           <a:ext cx="4353533" cy="666843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2881,6 +3962,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3149,342 +4260,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S9"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="20"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="J4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="M4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="P4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>194</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="13">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
         <v>273</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="23">
+        <f>(F5-C5)/C5</f>
+        <v>0.40721649484536082</v>
+      </c>
+      <c r="H5" s="8">
         <v>34</v>
       </c>
-      <c r="G5" s="10">
+      <c r="I5" s="8">
         <v>257</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="23">
+        <f>(I5-C5)/C5</f>
+        <v>0.32474226804123713</v>
+      </c>
+      <c r="K5" s="8">
         <v>21</v>
       </c>
-      <c r="I5" s="10">
+      <c r="L5" s="8">
         <v>771</v>
       </c>
-      <c r="J5" s="10">
+      <c r="M5" s="23">
+        <f>(L5-C5)/C5</f>
+        <v>2.9742268041237114</v>
+      </c>
+      <c r="N5" s="8">
         <v>38</v>
       </c>
-      <c r="K5" s="10">
+      <c r="O5" s="8">
         <v>457</v>
       </c>
-      <c r="L5" s="6">
+      <c r="P5" s="23">
+        <f>(O5-C5)/C5</f>
+        <v>1.3556701030927836</v>
+      </c>
+      <c r="Q5" s="4">
         <v>38</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1694</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="13">
+        <v>84</v>
+      </c>
+      <c r="E6" s="13">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3">
         <v>1669</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="23">
+        <f t="shared" ref="G6:G9" si="0">(F6-C6)/C6</f>
+        <v>-1.475796930342385E-2</v>
+      </c>
+      <c r="H6" s="8">
         <v>163</v>
       </c>
-      <c r="G6" s="10">
+      <c r="I6" s="8">
         <v>1216</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="23">
+        <f t="shared" ref="J6:J9" si="1">(I6-C6)/C6</f>
+        <v>-0.28217237308146398</v>
+      </c>
+      <c r="K6" s="8">
         <v>93</v>
       </c>
-      <c r="I6" s="10">
+      <c r="L6" s="8">
         <v>1890</v>
       </c>
-      <c r="J6" s="10">
+      <c r="M6" s="23">
+        <f t="shared" ref="M6:M9" si="2">(L6-C6)/C6</f>
+        <v>0.11570247933884298</v>
+      </c>
+      <c r="N6" s="8">
         <v>161</v>
       </c>
-      <c r="K6" s="10">
+      <c r="O6" s="8">
         <v>1601</v>
       </c>
-      <c r="L6" s="6">
+      <c r="P6" s="23">
+        <f t="shared" ref="P6:P9" si="3">(O6-C6)/C6</f>
+        <v>-5.489964580873672E-2</v>
+      </c>
+      <c r="Q6" s="4">
         <v>162</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>12519</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="13">
+        <v>539</v>
+      </c>
+      <c r="E7" s="13">
+        <v>522</v>
+      </c>
+      <c r="F7" s="3">
         <v>13159</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="23">
+        <f t="shared" si="0"/>
+        <v>5.1122294112948316E-2</v>
+      </c>
+      <c r="H7" s="8">
         <v>1091</v>
       </c>
-      <c r="G7" s="10">
+      <c r="I7" s="8">
         <v>11214</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.10424155283968368</v>
+      </c>
+      <c r="K7" s="8">
         <v>676</v>
       </c>
-      <c r="I7" s="10">
+      <c r="L7" s="8">
         <v>16627</v>
       </c>
-      <c r="J7" s="10">
+      <c r="M7" s="23">
+        <f t="shared" si="2"/>
+        <v>0.32814122533748702</v>
+      </c>
+      <c r="N7" s="8">
         <v>1395</v>
       </c>
-      <c r="K7" s="10">
+      <c r="O7" s="8">
         <v>14658</v>
       </c>
-      <c r="L7" s="6">
+      <c r="P7" s="23">
+        <f t="shared" si="3"/>
+        <v>0.17086029235561945</v>
+      </c>
+      <c r="Q7" s="4">
         <v>1497</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>1293</v>
-      </c>
-      <c r="P7" s="5">
-        <v>2868</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2935</v>
-      </c>
-      <c r="R7" s="10">
-        <v>7033</v>
-      </c>
-      <c r="S7" s="6">
-        <v>6975</v>
-      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>10000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>135408</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="14">
+        <v>5147</v>
+      </c>
+      <c r="E8" s="14">
+        <v>5120</v>
+      </c>
+      <c r="F8" s="8">
         <v>143473</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9560734963960769E-2</v>
+      </c>
+      <c r="H8" s="8">
         <v>10744</v>
       </c>
-      <c r="G8" s="10">
+      <c r="I8" s="8">
         <v>121017</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.10627880184331798</v>
+      </c>
+      <c r="K8" s="8">
         <v>6540</v>
       </c>
-      <c r="I8" s="10">
+      <c r="L8" s="8">
         <v>162505</v>
       </c>
-      <c r="J8" s="10">
+      <c r="M8" s="23">
+        <f t="shared" si="2"/>
+        <v>0.20011373035566585</v>
+      </c>
+      <c r="N8" s="8">
         <v>13780</v>
       </c>
-      <c r="K8" s="10">
+      <c r="O8" s="8">
         <v>165608</v>
       </c>
-      <c r="L8" s="6">
+      <c r="P8" s="23">
+        <f t="shared" si="3"/>
+        <v>0.22302965851352949</v>
+      </c>
+      <c r="Q8" s="4">
         <v>14595</v>
       </c>
-      <c r="N8" s="12" t="s">
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1340488</v>
+      </c>
+      <c r="D9" s="15">
+        <v>21855</v>
+      </c>
+      <c r="E9" s="15">
+        <v>50921</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1398495</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" si="0"/>
+        <v>4.327304683070643E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>107075</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1223858</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>-8.7005627801218663E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>65309</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1630420</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="2"/>
+        <v>0.2162883964645711</v>
+      </c>
+      <c r="N9" s="6">
+        <v>137209</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1629651</v>
+      </c>
+      <c r="P9" s="24">
+        <f t="shared" si="3"/>
+        <v>0.21571472478679407</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>144961</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+      <c r="I15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1293</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2868</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2935</v>
+      </c>
+      <c r="M16" s="8">
+        <v>7033</v>
+      </c>
+      <c r="N16" s="4">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1340488</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1398495</v>
-      </c>
-      <c r="F9" s="8">
-        <v>107075</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1223858</v>
-      </c>
-      <c r="H9" s="8">
-        <v>65309</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1630420</v>
-      </c>
-      <c r="J9" s="8">
-        <v>137209</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1629651</v>
-      </c>
-      <c r="L9" s="9">
-        <v>144961</v>
-      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
+  <mergeCells count="8">
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
